--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Mdk-Lrp1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Mdk-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Lrp1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.64115168223275</v>
+        <v>1.237638666666667</v>
       </c>
       <c r="H2">
-        <v>0.64115168223275</v>
+        <v>3.712916</v>
       </c>
       <c r="I2">
-        <v>0.03230056020388278</v>
+        <v>0.03888686536925432</v>
       </c>
       <c r="J2">
-        <v>0.03230056020388278</v>
+        <v>0.03888686536925433</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N2">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O2">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P2">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q2">
-        <v>1.029159594568268</v>
+        <v>2.164693147572</v>
       </c>
       <c r="R2">
-        <v>1.029159594568268</v>
+        <v>19.482238328148</v>
       </c>
       <c r="S2">
-        <v>0.0001115199983149549</v>
+        <v>0.0001417318687766948</v>
       </c>
       <c r="T2">
-        <v>0.0001115199983149549</v>
+        <v>0.0001417318687766948</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.64115168223275</v>
+        <v>1.237638666666667</v>
       </c>
       <c r="H3">
-        <v>0.64115168223275</v>
+        <v>3.712916</v>
       </c>
       <c r="I3">
-        <v>0.03230056020388278</v>
+        <v>0.03888686536925432</v>
       </c>
       <c r="J3">
-        <v>0.03230056020388278</v>
+        <v>0.03888686536925433</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N3">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O3">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P3">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q3">
-        <v>91.32275889006884</v>
+        <v>177.0263315133956</v>
       </c>
       <c r="R3">
-        <v>91.32275889006884</v>
+        <v>1593.23698362056</v>
       </c>
       <c r="S3">
-        <v>0.009895757636899675</v>
+        <v>0.01159068333367176</v>
       </c>
       <c r="T3">
-        <v>0.009895757636899675</v>
+        <v>0.01159068333367176</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.64115168223275</v>
+        <v>1.237638666666667</v>
       </c>
       <c r="H4">
-        <v>0.64115168223275</v>
+        <v>3.712916</v>
       </c>
       <c r="I4">
-        <v>0.03230056020388278</v>
+        <v>0.03888686536925432</v>
       </c>
       <c r="J4">
-        <v>0.03230056020388278</v>
+        <v>0.03888686536925433</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N4">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O4">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P4">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q4">
-        <v>77.9733889134681</v>
+        <v>164.3643704505973</v>
       </c>
       <c r="R4">
-        <v>77.9733889134681</v>
+        <v>1479.279334055376</v>
       </c>
       <c r="S4">
-        <v>0.008449216473455787</v>
+        <v>0.01076164971021292</v>
       </c>
       <c r="T4">
-        <v>0.008449216473455787</v>
+        <v>0.01076164971021292</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.64115168223275</v>
+        <v>1.237638666666667</v>
       </c>
       <c r="H5">
-        <v>0.64115168223275</v>
+        <v>3.712916</v>
       </c>
       <c r="I5">
-        <v>0.03230056020388278</v>
+        <v>0.03888686536925432</v>
       </c>
       <c r="J5">
-        <v>0.03230056020388278</v>
+        <v>0.03888686536925433</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N5">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O5">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P5">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q5">
-        <v>80.08887753885192</v>
+        <v>155.5800715961813</v>
       </c>
       <c r="R5">
-        <v>80.08887753885192</v>
+        <v>1400.220644365632</v>
       </c>
       <c r="S5">
-        <v>0.008678451364898525</v>
+        <v>0.01018650348501892</v>
       </c>
       <c r="T5">
-        <v>0.008678451364898525</v>
+        <v>0.01018650348501892</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.64115168223275</v>
+        <v>1.237638666666667</v>
       </c>
       <c r="H6">
-        <v>0.64115168223275</v>
+        <v>3.712916</v>
       </c>
       <c r="I6">
-        <v>0.03230056020388278</v>
+        <v>0.03888686536925432</v>
       </c>
       <c r="J6">
-        <v>0.03230056020388278</v>
+        <v>0.03888686536925433</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N6">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O6">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P6">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q6">
-        <v>33.76759437826082</v>
+        <v>66.3207017212911</v>
       </c>
       <c r="R6">
-        <v>33.76759437826082</v>
+        <v>596.8863154916199</v>
       </c>
       <c r="S6">
-        <v>0.003659065210137271</v>
+        <v>0.004342304591338252</v>
       </c>
       <c r="T6">
-        <v>0.003659065210137271</v>
+        <v>0.004342304591338253</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.64115168223275</v>
+        <v>1.237638666666667</v>
       </c>
       <c r="H7">
-        <v>0.64115168223275</v>
+        <v>3.712916</v>
       </c>
       <c r="I7">
-        <v>0.03230056020388278</v>
+        <v>0.03888686536925432</v>
       </c>
       <c r="J7">
-        <v>0.03230056020388278</v>
+        <v>0.03888686536925433</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N7">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O7">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P7">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q7">
-        <v>13.90315563853463</v>
+        <v>28.46904910976711</v>
       </c>
       <c r="R7">
-        <v>13.90315563853463</v>
+        <v>256.221441987904</v>
       </c>
       <c r="S7">
-        <v>0.00150654952017657</v>
+        <v>0.001863992380235769</v>
       </c>
       <c r="T7">
-        <v>0.00150654952017657</v>
+        <v>0.00186399238023577</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.59302564509964</v>
+        <v>3.644449</v>
       </c>
       <c r="H8">
-        <v>3.59302564509964</v>
+        <v>10.933347</v>
       </c>
       <c r="I8">
-        <v>0.1810129246787267</v>
+        <v>0.1145093486694395</v>
       </c>
       <c r="J8">
-        <v>0.1810129246787267</v>
+        <v>0.1145093486694395</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N8">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O8">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P8">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q8">
-        <v>5.767429016651577</v>
+        <v>6.374327167899001</v>
       </c>
       <c r="R8">
-        <v>5.767429016651577</v>
+        <v>57.36894451109102</v>
       </c>
       <c r="S8">
-        <v>0.0006249600913339602</v>
+        <v>0.0004173549044185406</v>
       </c>
       <c r="T8">
-        <v>0.0006249600913339602</v>
+        <v>0.0004173549044185407</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.59302564509964</v>
+        <v>3.644449</v>
       </c>
       <c r="H9">
-        <v>3.59302564509964</v>
+        <v>10.933347</v>
       </c>
       <c r="I9">
-        <v>0.1810129246787267</v>
+        <v>0.1145093486694395</v>
       </c>
       <c r="J9">
-        <v>0.1810129246787267</v>
+        <v>0.1145093486694395</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N9">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O9">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P9">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q9">
-        <v>511.7743956166568</v>
+        <v>521.2857793101134</v>
       </c>
       <c r="R9">
-        <v>511.7743956166568</v>
+        <v>4691.572013791021</v>
       </c>
       <c r="S9">
-        <v>0.05545600511138293</v>
+        <v>0.03413084563565408</v>
       </c>
       <c r="T9">
-        <v>0.05545600511138293</v>
+        <v>0.03413084563565408</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.59302564509964</v>
+        <v>3.644449</v>
       </c>
       <c r="H10">
-        <v>3.59302564509964</v>
+        <v>10.933347</v>
       </c>
       <c r="I10">
-        <v>0.1810129246787267</v>
+        <v>0.1145093486694395</v>
       </c>
       <c r="J10">
-        <v>0.1810129246787267</v>
+        <v>0.1145093486694395</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N10">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O10">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P10">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q10">
-        <v>436.9642843730626</v>
+        <v>484.000364288588</v>
       </c>
       <c r="R10">
-        <v>436.9642843730626</v>
+        <v>4356.003278597293</v>
       </c>
       <c r="S10">
-        <v>0.04734956221966891</v>
+        <v>0.03168960746060707</v>
       </c>
       <c r="T10">
-        <v>0.04734956221966891</v>
+        <v>0.03168960746060707</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.59302564509964</v>
+        <v>3.644449</v>
       </c>
       <c r="H11">
-        <v>3.59302564509964</v>
+        <v>10.933347</v>
       </c>
       <c r="I11">
-        <v>0.1810129246787267</v>
+        <v>0.1145093486694395</v>
       </c>
       <c r="J11">
-        <v>0.1810129246787267</v>
+        <v>0.1145093486694395</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N11">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O11">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P11">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q11">
-        <v>448.8195209630234</v>
+        <v>458.133421021616</v>
       </c>
       <c r="R11">
-        <v>448.8195209630234</v>
+        <v>4123.200789194545</v>
       </c>
       <c r="S11">
-        <v>0.04863419870512133</v>
+        <v>0.02999598625943091</v>
       </c>
       <c r="T11">
-        <v>0.04863419870512133</v>
+        <v>0.02999598625943091</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.59302564509964</v>
+        <v>3.644449</v>
       </c>
       <c r="H12">
-        <v>3.59302564509964</v>
+        <v>10.933347</v>
       </c>
       <c r="I12">
-        <v>0.1810129246787267</v>
+        <v>0.1145093486694395</v>
       </c>
       <c r="J12">
-        <v>0.1810129246787267</v>
+        <v>0.1145093486694395</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N12">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O12">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P12">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q12">
-        <v>189.2342107750554</v>
+        <v>195.2931995236017</v>
       </c>
       <c r="R12">
-        <v>189.2342107750554</v>
+        <v>1757.638795712415</v>
       </c>
       <c r="S12">
-        <v>0.02050546774100558</v>
+        <v>0.01278669457558273</v>
       </c>
       <c r="T12">
-        <v>0.02050546774100558</v>
+        <v>0.01278669457558273</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.59302564509964</v>
+        <v>3.644449</v>
       </c>
       <c r="H13">
-        <v>3.59302564509964</v>
+        <v>10.933347</v>
       </c>
       <c r="I13">
-        <v>0.1810129246787267</v>
+        <v>0.1145093486694395</v>
       </c>
       <c r="J13">
-        <v>0.1810129246787267</v>
+        <v>0.1145093486694395</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N13">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O13">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P13">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q13">
-        <v>77.91353612783972</v>
+        <v>83.83222046421866</v>
       </c>
       <c r="R13">
-        <v>77.91353612783972</v>
+        <v>754.4899841779682</v>
       </c>
       <c r="S13">
-        <v>0.008442730810214001</v>
+        <v>0.005488859833746202</v>
       </c>
       <c r="T13">
-        <v>0.008442730810214001</v>
+        <v>0.005488859833746204</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>4.58295704856817</v>
+        <v>1.671495666666667</v>
       </c>
       <c r="H14">
-        <v>4.58295704856817</v>
+        <v>5.014487</v>
       </c>
       <c r="I14">
-        <v>0.2308846473639084</v>
+        <v>0.05251874291389195</v>
       </c>
       <c r="J14">
-        <v>0.2308846473639084</v>
+        <v>0.05251874291389194</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N14">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O14">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P14">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q14">
-        <v>7.356440525279619</v>
+        <v>2.923531167279001</v>
       </c>
       <c r="R14">
-        <v>7.356440525279619</v>
+        <v>26.311780505511</v>
       </c>
       <c r="S14">
-        <v>0.0007971457870218882</v>
+        <v>0.0001914162920643619</v>
       </c>
       <c r="T14">
-        <v>0.0007971457870218882</v>
+        <v>0.0001914162920643618</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>4.58295704856817</v>
+        <v>1.671495666666667</v>
       </c>
       <c r="H15">
-        <v>4.58295704856817</v>
+        <v>5.014487</v>
       </c>
       <c r="I15">
-        <v>0.2308846473639084</v>
+        <v>0.05251874291389195</v>
       </c>
       <c r="J15">
-        <v>0.2308846473639084</v>
+        <v>0.05251874291389194</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N15">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O15">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P15">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q15">
-        <v>652.7757676505619</v>
+        <v>239.0833075759356</v>
       </c>
       <c r="R15">
-        <v>652.7757676505619</v>
+        <v>2151.74976818342</v>
       </c>
       <c r="S15">
-        <v>0.07073495004336293</v>
+        <v>0.01565382327470207</v>
       </c>
       <c r="T15">
-        <v>0.07073495004336293</v>
+        <v>0.01565382327470207</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>4.58295704856817</v>
+        <v>1.671495666666667</v>
       </c>
       <c r="H16">
-        <v>4.58295704856817</v>
+        <v>5.014487</v>
       </c>
       <c r="I16">
-        <v>0.2308846473639084</v>
+        <v>0.05251874291389195</v>
       </c>
       <c r="J16">
-        <v>0.2308846473639084</v>
+        <v>0.05251874291389194</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N16">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O16">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P16">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q16">
-        <v>557.3543706183425</v>
+        <v>221.9826677704813</v>
       </c>
       <c r="R16">
-        <v>557.3543706183425</v>
+        <v>1997.844009934332</v>
       </c>
       <c r="S16">
-        <v>0.06039506292341841</v>
+        <v>0.0145341700621335</v>
       </c>
       <c r="T16">
-        <v>0.06039506292341841</v>
+        <v>0.0145341700621335</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>4.58295704856817</v>
+        <v>1.671495666666667</v>
       </c>
       <c r="H17">
-        <v>4.58295704856817</v>
+        <v>5.014487</v>
       </c>
       <c r="I17">
-        <v>0.2308846473639084</v>
+        <v>0.05251874291389195</v>
       </c>
       <c r="J17">
-        <v>0.2308846473639084</v>
+        <v>0.05251874291389194</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N17">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O17">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P17">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q17">
-        <v>572.475899229335</v>
+        <v>210.1190133248693</v>
       </c>
       <c r="R17">
-        <v>572.475899229335</v>
+        <v>1891.071119923824</v>
       </c>
       <c r="S17">
-        <v>0.06203363565219411</v>
+        <v>0.01375740504258165</v>
       </c>
       <c r="T17">
-        <v>0.06203363565219411</v>
+        <v>0.01375740504258165</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>4.58295704856817</v>
+        <v>1.671495666666667</v>
       </c>
       <c r="H18">
-        <v>4.58295704856817</v>
+        <v>5.014487</v>
       </c>
       <c r="I18">
-        <v>0.2308846473639084</v>
+        <v>0.05251874291389195</v>
       </c>
       <c r="J18">
-        <v>0.2308846473639084</v>
+        <v>0.05251874291389194</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N18">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O18">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P18">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q18">
-        <v>241.3710186801978</v>
+        <v>89.56957189774612</v>
       </c>
       <c r="R18">
-        <v>241.3710186801978</v>
+        <v>806.126147079715</v>
       </c>
       <c r="S18">
-        <v>0.02615502565254379</v>
+        <v>0.005864509168348</v>
       </c>
       <c r="T18">
-        <v>0.02615502565254379</v>
+        <v>0.005864509168348</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>4.58295704856817</v>
+        <v>1.671495666666667</v>
       </c>
       <c r="H19">
-        <v>4.58295704856817</v>
+        <v>5.014487</v>
       </c>
       <c r="I19">
-        <v>0.2308846473639084</v>
+        <v>0.05251874291389195</v>
       </c>
       <c r="J19">
-        <v>0.2308846473639084</v>
+        <v>0.05251874291389194</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N19">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O19">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P19">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q19">
-        <v>99.37986111035721</v>
+        <v>38.44893788690311</v>
       </c>
       <c r="R19">
-        <v>99.37986111035721</v>
+        <v>346.040440982128</v>
       </c>
       <c r="S19">
-        <v>0.01076882730536729</v>
+        <v>0.002517419074062361</v>
       </c>
       <c r="T19">
-        <v>0.01076882730536729</v>
+        <v>0.002517419074062361</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>11.0324186406963</v>
+        <v>2.306614666666666</v>
       </c>
       <c r="H20">
-        <v>11.0324186406963</v>
+        <v>6.919843999999999</v>
       </c>
       <c r="I20">
-        <v>0.5558018677534822</v>
+        <v>0.07247431452913082</v>
       </c>
       <c r="J20">
-        <v>0.5558018677534822</v>
+        <v>0.07247431452913082</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N20">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O20">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P20">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q20">
-        <v>17.70894440427382</v>
+        <v>4.034386689348</v>
       </c>
       <c r="R20">
-        <v>17.70894440427382</v>
+        <v>36.309480204132</v>
       </c>
       <c r="S20">
-        <v>0.001918945769487498</v>
+        <v>0.0002641488312052303</v>
       </c>
       <c r="T20">
-        <v>0.001918945769487498</v>
+        <v>0.0002641488312052303</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>11.0324186406963</v>
+        <v>2.306614666666666</v>
       </c>
       <c r="H21">
-        <v>11.0324186406963</v>
+        <v>6.919843999999999</v>
       </c>
       <c r="I21">
-        <v>0.5558018677534822</v>
+        <v>0.07247431452913082</v>
       </c>
       <c r="J21">
-        <v>0.5558018677534822</v>
+        <v>0.07247431452913082</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N21">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O21">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P21">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q21">
-        <v>1571.408038718775</v>
+        <v>329.9279051734489</v>
       </c>
       <c r="R21">
-        <v>1571.408038718775</v>
+        <v>2969.35114656104</v>
       </c>
       <c r="S21">
-        <v>0.1702781791618423</v>
+        <v>0.02160181391725764</v>
       </c>
       <c r="T21">
-        <v>0.1702781791618423</v>
+        <v>0.02160181391725764</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>11.0324186406963</v>
+        <v>2.306614666666666</v>
       </c>
       <c r="H22">
-        <v>11.0324186406963</v>
+        <v>6.919843999999999</v>
       </c>
       <c r="I22">
-        <v>0.5558018677534822</v>
+        <v>0.07247431452913082</v>
       </c>
       <c r="J22">
-        <v>0.5558018677534822</v>
+        <v>0.07247431452913082</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N22">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O22">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P22">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q22">
-        <v>1341.702896780245</v>
+        <v>306.3295271631093</v>
       </c>
       <c r="R22">
-        <v>1341.702896780245</v>
+        <v>2756.965744467984</v>
       </c>
       <c r="S22">
-        <v>0.1453872709128961</v>
+        <v>0.02005672554329767</v>
       </c>
       <c r="T22">
-        <v>0.1453872709128961</v>
+        <v>0.02005672554329768</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>11.0324186406963</v>
+        <v>2.306614666666666</v>
       </c>
       <c r="H23">
-        <v>11.0324186406963</v>
+        <v>6.919843999999999</v>
       </c>
       <c r="I23">
-        <v>0.5558018677534822</v>
+        <v>0.07247431452913082</v>
       </c>
       <c r="J23">
-        <v>0.5558018677534822</v>
+        <v>0.07247431452913082</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N23">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O23">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P23">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q23">
-        <v>1378.10451092495</v>
+        <v>289.9580343197653</v>
       </c>
       <c r="R23">
-        <v>1378.10451092495</v>
+        <v>2609.622308877888</v>
       </c>
       <c r="S23">
-        <v>0.1493317591822613</v>
+        <v>0.01898481275142968</v>
       </c>
       <c r="T23">
-        <v>0.1493317591822613</v>
+        <v>0.01898481275142968</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>11.0324186406963</v>
+        <v>2.306614666666666</v>
       </c>
       <c r="H24">
-        <v>11.0324186406963</v>
+        <v>6.919843999999999</v>
       </c>
       <c r="I24">
-        <v>0.5558018677534822</v>
+        <v>0.07247431452913082</v>
       </c>
       <c r="J24">
-        <v>0.5558018677534822</v>
+        <v>0.07247431452913082</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N24">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O24">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P24">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q24">
-        <v>581.045403129673</v>
+        <v>123.6033645473978</v>
       </c>
       <c r="R24">
-        <v>581.045403129673</v>
+        <v>1112.43028092658</v>
       </c>
       <c r="S24">
-        <v>0.06296222929847557</v>
+        <v>0.008092849494183131</v>
       </c>
       <c r="T24">
-        <v>0.06296222929847557</v>
+        <v>0.008092849494183133</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>2.306614666666666</v>
+      </c>
+      <c r="H25">
+        <v>6.919843999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.07247431452913082</v>
+      </c>
+      <c r="J25">
+        <v>0.07247431452913082</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>23.00271466666667</v>
+      </c>
+      <c r="N25">
+        <v>69.008144</v>
+      </c>
+      <c r="O25">
+        <v>0.04793372678759353</v>
+      </c>
+      <c r="P25">
+        <v>0.04793372678759355</v>
+      </c>
+      <c r="Q25">
+        <v>53.05839902328177</v>
+      </c>
+      <c r="R25">
+        <v>477.5255912095359</v>
+      </c>
+      <c r="S25">
+        <v>0.003473963991757477</v>
+      </c>
+      <c r="T25">
+        <v>0.003473963991757478</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>4.637834666666667</v>
+      </c>
+      <c r="H26">
+        <v>13.913504</v>
+      </c>
+      <c r="I26">
+        <v>0.1457217337700561</v>
+      </c>
+      <c r="J26">
+        <v>0.1457217337700561</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.749051</v>
+      </c>
+      <c r="N26">
+        <v>5.247153000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.003644723415756578</v>
+      </c>
+      <c r="P26">
+        <v>0.003644723415756579</v>
+      </c>
+      <c r="Q26">
+        <v>8.111809361568001</v>
+      </c>
+      <c r="R26">
+        <v>73.006284254112</v>
+      </c>
+      <c r="S26">
+        <v>0.0005311154152563695</v>
+      </c>
+      <c r="T26">
+        <v>0.0005311154152563695</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>4.637834666666667</v>
+      </c>
+      <c r="H27">
+        <v>13.913504</v>
+      </c>
+      <c r="I27">
+        <v>0.1457217337700561</v>
+      </c>
+      <c r="J27">
+        <v>0.1457217337700561</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>143.0355533333334</v>
+      </c>
+      <c r="N27">
+        <v>429.10666</v>
+      </c>
+      <c r="O27">
+        <v>0.2980616520156925</v>
+      </c>
+      <c r="P27">
+        <v>0.2980616520156925</v>
+      </c>
+      <c r="Q27">
+        <v>663.3752478151823</v>
+      </c>
+      <c r="R27">
+        <v>5970.37723033664</v>
+      </c>
+      <c r="S27">
+        <v>0.04343406070209383</v>
+      </c>
+      <c r="T27">
+        <v>0.04343406070209383</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>4.637834666666667</v>
+      </c>
+      <c r="H28">
+        <v>13.913504</v>
+      </c>
+      <c r="I28">
+        <v>0.1457217337700561</v>
+      </c>
+      <c r="J28">
+        <v>0.1457217337700561</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>132.804812</v>
+      </c>
+      <c r="N28">
+        <v>398.414436</v>
+      </c>
+      <c r="O28">
+        <v>0.2767425352500014</v>
+      </c>
+      <c r="P28">
+        <v>0.2767425352500014</v>
+      </c>
+      <c r="Q28">
+        <v>615.9267609937493</v>
+      </c>
+      <c r="R28">
+        <v>5543.340848943744</v>
+      </c>
+      <c r="S28">
+        <v>0.04032740204455106</v>
+      </c>
+      <c r="T28">
+        <v>0.04032740204455106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>4.637834666666667</v>
+      </c>
+      <c r="H29">
+        <v>13.913504</v>
+      </c>
+      <c r="I29">
+        <v>0.1457217337700561</v>
+      </c>
+      <c r="J29">
+        <v>0.1457217337700561</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>125.707184</v>
+      </c>
+      <c r="N29">
+        <v>377.121552</v>
+      </c>
+      <c r="O29">
+        <v>0.261952291301752</v>
+      </c>
+      <c r="P29">
+        <v>0.261952291301752</v>
+      </c>
+      <c r="Q29">
+        <v>583.0091358042453</v>
+      </c>
+      <c r="R29">
+        <v>5247.082222238208</v>
+      </c>
+      <c r="S29">
+        <v>0.03817214205353008</v>
+      </c>
+      <c r="T29">
+        <v>0.03817214205353008</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>4.637834666666667</v>
+      </c>
+      <c r="H30">
+        <v>13.913504</v>
+      </c>
+      <c r="I30">
+        <v>0.1457217337700561</v>
+      </c>
+      <c r="J30">
+        <v>0.1457217337700561</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>53.58648166666666</v>
+      </c>
+      <c r="N30">
+        <v>160.759445</v>
+      </c>
+      <c r="O30">
+        <v>0.111665071229204</v>
+      </c>
+      <c r="P30">
+        <v>0.1116650712292041</v>
+      </c>
+      <c r="Q30">
+        <v>248.5252423383644</v>
+      </c>
+      <c r="R30">
+        <v>2236.72718104528</v>
+      </c>
+      <c r="S30">
+        <v>0.01627202778107642</v>
+      </c>
+      <c r="T30">
+        <v>0.01627202778107642</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>4.637834666666667</v>
+      </c>
+      <c r="H31">
+        <v>13.913504</v>
+      </c>
+      <c r="I31">
+        <v>0.1457217337700561</v>
+      </c>
+      <c r="J31">
+        <v>0.1457217337700561</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>23.00271466666667</v>
+      </c>
+      <c r="N31">
+        <v>69.008144</v>
+      </c>
+      <c r="O31">
+        <v>0.04793372678759353</v>
+      </c>
+      <c r="P31">
+        <v>0.04793372678759355</v>
+      </c>
+      <c r="Q31">
+        <v>106.6827875085084</v>
+      </c>
+      <c r="R31">
+        <v>960.145087576576</v>
+      </c>
+      <c r="S31">
+        <v>0.00698498577354831</v>
+      </c>
+      <c r="T31">
+        <v>0.006984985773548312</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>18.32861766666667</v>
+      </c>
+      <c r="H32">
+        <v>54.985853</v>
+      </c>
+      <c r="I32">
+        <v>0.5758889947482273</v>
+      </c>
+      <c r="J32">
+        <v>0.5758889947482273</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.749051</v>
+      </c>
+      <c r="N32">
+        <v>5.247153000000001</v>
+      </c>
+      <c r="O32">
+        <v>0.003644723415756578</v>
+      </c>
+      <c r="P32">
+        <v>0.003644723415756579</v>
+      </c>
+      <c r="Q32">
+        <v>32.057687058501</v>
+      </c>
+      <c r="R32">
+        <v>288.519183526509</v>
+      </c>
+      <c r="S32">
+        <v>0.002098956104035381</v>
+      </c>
+      <c r="T32">
+        <v>0.002098956104035381</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>18.32861766666667</v>
+      </c>
+      <c r="H33">
+        <v>54.985853</v>
+      </c>
+      <c r="I33">
+        <v>0.5758889947482273</v>
+      </c>
+      <c r="J33">
+        <v>0.5758889947482273</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>143.0355533333334</v>
+      </c>
+      <c r="N33">
+        <v>429.10666</v>
+      </c>
+      <c r="O33">
+        <v>0.2980616520156925</v>
+      </c>
+      <c r="P33">
+        <v>0.2980616520156925</v>
+      </c>
+      <c r="Q33">
+        <v>2621.643969786776</v>
+      </c>
+      <c r="R33">
+        <v>23594.79572808098</v>
+      </c>
+      <c r="S33">
+        <v>0.1716504251523131</v>
+      </c>
+      <c r="T33">
+        <v>0.1716504251523131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>18.32861766666667</v>
+      </c>
+      <c r="H34">
+        <v>54.985853</v>
+      </c>
+      <c r="I34">
+        <v>0.5758889947482273</v>
+      </c>
+      <c r="J34">
+        <v>0.5758889947482273</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>132.804812</v>
+      </c>
+      <c r="N34">
+        <v>398.414436</v>
+      </c>
+      <c r="O34">
+        <v>0.2767425352500014</v>
+      </c>
+      <c r="P34">
+        <v>0.2767425352500014</v>
+      </c>
+      <c r="Q34">
+        <v>2434.128623441545</v>
+      </c>
+      <c r="R34">
+        <v>21907.15761097391</v>
+      </c>
+      <c r="S34">
+        <v>0.1593729804291991</v>
+      </c>
+      <c r="T34">
+        <v>0.1593729804291992</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>11.0324186406963</v>
-      </c>
-      <c r="H25">
-        <v>11.0324186406963</v>
-      </c>
-      <c r="I25">
-        <v>0.5558018677534822</v>
-      </c>
-      <c r="J25">
-        <v>0.5558018677534822</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>21.6846590655712</v>
-      </c>
-      <c r="N25">
-        <v>21.6846590655712</v>
-      </c>
-      <c r="O25">
-        <v>0.0466415910642773</v>
-      </c>
-      <c r="P25">
-        <v>0.0466415910642773</v>
-      </c>
-      <c r="Q25">
-        <v>239.2342368921517</v>
-      </c>
-      <c r="R25">
-        <v>239.2342368921517</v>
-      </c>
-      <c r="S25">
-        <v>0.02592348342851945</v>
-      </c>
-      <c r="T25">
-        <v>0.02592348342851945</v>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>18.32861766666667</v>
+      </c>
+      <c r="H35">
+        <v>54.985853</v>
+      </c>
+      <c r="I35">
+        <v>0.5758889947482273</v>
+      </c>
+      <c r="J35">
+        <v>0.5758889947482273</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>125.707184</v>
+      </c>
+      <c r="N35">
+        <v>377.121552</v>
+      </c>
+      <c r="O35">
+        <v>0.261952291301752</v>
+      </c>
+      <c r="P35">
+        <v>0.261952291301752</v>
+      </c>
+      <c r="Q35">
+        <v>2304.038913489317</v>
+      </c>
+      <c r="R35">
+        <v>20736.35022140386</v>
+      </c>
+      <c r="S35">
+        <v>0.1508554417097608</v>
+      </c>
+      <c r="T35">
+        <v>0.1508554417097608</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>18.32861766666667</v>
+      </c>
+      <c r="H36">
+        <v>54.985853</v>
+      </c>
+      <c r="I36">
+        <v>0.5758889947482273</v>
+      </c>
+      <c r="J36">
+        <v>0.5758889947482273</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>53.58648166666666</v>
+      </c>
+      <c r="N36">
+        <v>160.759445</v>
+      </c>
+      <c r="O36">
+        <v>0.111665071229204</v>
+      </c>
+      <c r="P36">
+        <v>0.1116650712292041</v>
+      </c>
+      <c r="Q36">
+        <v>982.166134570176</v>
+      </c>
+      <c r="R36">
+        <v>8839.495211131585</v>
+      </c>
+      <c r="S36">
+        <v>0.06430668561867552</v>
+      </c>
+      <c r="T36">
+        <v>0.06430668561867553</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>18.32861766666667</v>
+      </c>
+      <c r="H37">
+        <v>54.985853</v>
+      </c>
+      <c r="I37">
+        <v>0.5758889947482273</v>
+      </c>
+      <c r="J37">
+        <v>0.5758889947482273</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>23.00271466666667</v>
+      </c>
+      <c r="N37">
+        <v>69.008144</v>
+      </c>
+      <c r="O37">
+        <v>0.04793372678759353</v>
+      </c>
+      <c r="P37">
+        <v>0.04793372678759355</v>
+      </c>
+      <c r="Q37">
+        <v>421.6079624207591</v>
+      </c>
+      <c r="R37">
+        <v>3794.471661786832</v>
+      </c>
+      <c r="S37">
+        <v>0.02760450573424341</v>
+      </c>
+      <c r="T37">
+        <v>0.02760450573424342</v>
       </c>
     </row>
   </sheetData>
